--- a/biology/Médecine/Prix_William-Allan/Prix_William-Allan.xlsx
+++ b/biology/Médecine/Prix_William-Allan/Prix_William-Allan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le prix William-Allan, décerné par la Société américaine pour la génétique humaine (en) (ASGH), a été créé en 1961 en mémoire du médecin William Allan (1881-1943), l'un des premiers médecins américains à conduire des recherches sur la génétique humaine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix William-Allan, décerné par la Société américaine pour la génétique humaine (en) (ASGH), a été créé en 1961 en mémoire du médecin William Allan (1881-1943), l'un des premiers médecins américains à conduire des recherches sur la génétique humaine.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix William-Allan est décerné tous les ans pour reconnaître les carrières de chercheurs ayant apporté des contributions importantes à la connaissance de la génétique humaines.
 Un prix de 10 000 $ et une médaille gravée sont décernés au lauréat lors du congrès annuel.
@@ -543,7 +557,9 @@
           <t>Lauréat du prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1962 : Newton Morton
 1965 : James Neel
